--- a/documents/example_docs_school/кабинеты.xlsx
+++ b/documents/example_docs_school/кабинеты.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/example_docs_school/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1AAA26-52AD-2A4C-9771-1756161A229C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0A3EC5-1FD9-FF45-BD27-DE755D275FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/documents/example_docs_school/кабинеты.xlsx
+++ b/documents/example_docs_school/кабинеты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/example_docs_school/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0A3EC5-1FD9-FF45-BD27-DE755D275FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D141298-C3B5-DE4B-B4C4-2B911E7E0C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>ФИО учителя</t>
   </si>
@@ -43,7 +43,160 @@
     <t>кабинет</t>
   </si>
   <si>
-    <t>Гайнуллина Алиша Рашидовна</t>
+    <t>Кузнецов П. В.</t>
+  </si>
+  <si>
+    <t>Головина В. Ю.</t>
+  </si>
+  <si>
+    <t>Богомолов Е. Д.</t>
+  </si>
+  <si>
+    <t>Васильева М. М.</t>
+  </si>
+  <si>
+    <t>Куликов М. А.</t>
+  </si>
+  <si>
+    <t>Соболева А. Е.</t>
+  </si>
+  <si>
+    <t>Сальников Л. А.</t>
+  </si>
+  <si>
+    <t>Власова В. И.</t>
+  </si>
+  <si>
+    <t>Королева А. А.</t>
+  </si>
+  <si>
+    <t>Парамонова А. Р.</t>
+  </si>
+  <si>
+    <t>Муратов Я. Л.</t>
+  </si>
+  <si>
+    <t>Третьякова В. П.</t>
+  </si>
+  <si>
+    <t>Никонова В. Е.</t>
+  </si>
+  <si>
+    <t>Носов Д. А.</t>
+  </si>
+  <si>
+    <t>Исаев Н. Ю.</t>
+  </si>
+  <si>
+    <t>Чижова П. Д.</t>
+  </si>
+  <si>
+    <t>Новикова Е. Д.</t>
+  </si>
+  <si>
+    <t>Соловьев И. Я.</t>
+  </si>
+  <si>
+    <t>Павлов С. Т.</t>
+  </si>
+  <si>
+    <t>Широков А. В.</t>
+  </si>
+  <si>
+    <t>Гончаров А. М.</t>
+  </si>
+  <si>
+    <t>Сазонова А. Г.</t>
+  </si>
+  <si>
+    <t>Афанасьева Ж. Л.</t>
+  </si>
+  <si>
+    <t>Калачева Е. С.</t>
+  </si>
+  <si>
+    <t>Петров В. Д.</t>
+  </si>
+  <si>
+    <t>Иванов Е. И.</t>
+  </si>
+  <si>
+    <t>Васильева А. П.</t>
+  </si>
+  <si>
+    <t>Петрова П. С.</t>
+  </si>
+  <si>
+    <t>Баранов М. И.</t>
+  </si>
+  <si>
+    <t>Степанов М. И.</t>
+  </si>
+  <si>
+    <t>Морозова А. М.</t>
+  </si>
+  <si>
+    <t>Волков А. И.</t>
+  </si>
+  <si>
+    <t>Дроздов И. Г.</t>
+  </si>
+  <si>
+    <t>Шилова У. Б.</t>
+  </si>
+  <si>
+    <t>Гришина В. А.</t>
+  </si>
+  <si>
+    <t>Кузнецов С. А.</t>
+  </si>
+  <si>
+    <t>Соколова А. Д.</t>
+  </si>
+  <si>
+    <t>Анисимова С. К.</t>
+  </si>
+  <si>
+    <t>Ефимова В. Т.</t>
+  </si>
+  <si>
+    <t>Львова М. Ф.</t>
+  </si>
+  <si>
+    <t>Калинин Р. Д.</t>
+  </si>
+  <si>
+    <t>Мартынова А. К.</t>
+  </si>
+  <si>
+    <t>Моисеева А. Д.</t>
+  </si>
+  <si>
+    <t>Морозова В. А.</t>
+  </si>
+  <si>
+    <t>Демидов Д. М.</t>
+  </si>
+  <si>
+    <t>Саханов Р. П.</t>
+  </si>
+  <si>
+    <t>Фомин А. Г.</t>
+  </si>
+  <si>
+    <t>Антонов Д. Ф.</t>
+  </si>
+  <si>
+    <t>Бондарев В. А.</t>
+  </si>
+  <si>
+    <t>Золотов А. И.</t>
+  </si>
+  <si>
+    <t>Кузьмин А. К.</t>
+  </si>
+  <si>
+    <t>Смирнов А. С.</t>
   </si>
 </sst>
 </file>
@@ -80,8 +233,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -396,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E4EB94-B1C0-BE47-A9AD-9B963093183B}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,7 +575,415 @@
         <v>2</v>
       </c>
       <c r="B2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
